--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaHhDvk.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaHhDvk.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AspNetCore\net5\CSDLGia\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4961B95-47C2-4F3F-8E9C-15AB7574F86B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9748DAA5-732E-4F78-839B-C6D97CC2C3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11310" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,46 +25,196 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
-  <si>
-    <t>Phân loại</t>
-  </si>
-  <si>
-    <t>Giá</t>
-  </si>
-  <si>
-    <t>Đơn vị</t>
-  </si>
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
-    <t>Mã nhóm</t>
-  </si>
-  <si>
-    <t>Nhà có khu phụ</t>
-  </si>
-  <si>
-    <t>Nhà không có khu phụ</t>
-  </si>
-  <si>
-    <t>Nhà khác</t>
-  </si>
-  <si>
-    <t>Tên nhóm</t>
-  </si>
-  <si>
-    <t>Nhà 1 tầng, tường 111</t>
-  </si>
-  <si>
-    <t>Nhà 1 tầng, tường 200</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
+  <si>
+    <t>ST T</t>
+  </si>
+  <si>
+    <t>Mã hàng hóa</t>
+  </si>
+  <si>
+    <t>Tên hàng hóa, dịch vụ</t>
+  </si>
+  <si>
+    <t>Đặc điểm kinh tế, kỹ thuật, quy cách</t>
+  </si>
+  <si>
+    <t>Đơn vị tính</t>
+  </si>
+  <si>
+    <t>Loại giá phổ biến</t>
+  </si>
+  <si>
+    <t>Giá kỳ trước</t>
+  </si>
+  <si>
+    <t>Giá kỳ này</t>
+  </si>
+  <si>
+    <t>Mức tăng (giảm)</t>
+  </si>
+  <si>
+    <t>ly H? tăng (giảm) /n/ X</t>
+  </si>
+  <si>
+    <t>Nguồn thông tin</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>LƯƠNG THỰC, THỰC PHẲM</t>
+  </si>
+  <si>
+    <t>01.0001</t>
+  </si>
+  <si>
+    <t>Thóc, gạo tẻ thường</t>
+  </si>
+  <si>
+    <t>Khang dân hoặc tương đương</t>
+  </si>
+  <si>
+    <t>đ/kg</t>
+  </si>
+  <si>
+    <t>Giá bán lẻ</t>
+  </si>
+  <si>
+    <t>(0,54)</t>
+  </si>
+  <si>
+    <t>Do trực tiếp điều tra, thu thập</t>
+  </si>
+  <si>
+    <t>Gạo tẻ thường trắng địa phương từ 14.000- 16.100 đ/kg</t>
+  </si>
+  <si>
+    <t>01.0002</t>
+  </si>
+  <si>
+    <t>Gạo tẻ ngon</t>
+  </si>
+  <si>
+    <t>Tám thơm hoặc tương đương</t>
+  </si>
+  <si>
+    <t>(2,24)</t>
+  </si>
+  <si>
+    <t>Gạo Tám thơm, gạo Tía, Lộc Phượng, Lài sữa, dẻo thơm từ 17.000 -25.000 đ/kg</t>
+  </si>
+  <si>
+    <t>01.0003</t>
+  </si>
+  <si>
+    <t>Thịt lợn hơi (Thịt heo hoi)</t>
+  </si>
+  <si>
+    <t>1,48</t>
+  </si>
+  <si>
+    <t>Giá từ 57.000- 59.000đ/kg</t>
+  </si>
+  <si>
+    <t>01.0004</t>
+  </si>
+  <si>
+    <t>Thịt lợn nạc thăn (Thịt heo nạc thăn)</t>
+  </si>
+  <si>
+    <t>2,24</t>
+  </si>
+  <si>
+    <t>Giá từ 120.000- 130.000đ/kg</t>
+  </si>
+  <si>
+    <t>01.0005</t>
+  </si>
+  <si>
+    <t>Thịt bò thăn</t>
+  </si>
+  <si>
+    <t>1,10</t>
+  </si>
+  <si>
+    <t>Từ 250.000- 270.000 đ/kg</t>
+  </si>
+  <si>
+    <t>01.0006</t>
+  </si>
+  <si>
+    <t>Thịt bò bắp</t>
+  </si>
+  <si>
+    <t>Bắp hoa hoặc bắp lõi, loại 200 - 300 gram/ cái</t>
+  </si>
+  <si>
+    <t>2,54</t>
+  </si>
+  <si>
+    <t>Từ 210.000- 230.000 đ/kg</t>
+  </si>
+  <si>
+    <t>01.0007</t>
+  </si>
+  <si>
+    <t>Gà ta</t>
+  </si>
+  <si>
+    <t>Còn sống, loại 1,5 -2kg /1 con hoặc phổ biến</t>
+  </si>
+  <si>
+    <t>4,71</t>
+  </si>
+  <si>
+    <t>Từ 90.000 - 120.000 đ/kg</t>
+  </si>
+  <si>
+    <t>01.0008</t>
+  </si>
+  <si>
+    <t>Gà công nghiệp</t>
+  </si>
+  <si>
+    <t>Làm sẵn, nguyên con, bỏ lòng, loại 1,5 - 2kg/l con hoặc phổ biến</t>
+  </si>
+  <si>
+    <t>0,46</t>
+  </si>
+  <si>
+    <t>Từ 65.000-70.000 đ/kg</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>01.0009</t>
+  </si>
+  <si>
+    <t>Giò lụa</t>
+  </si>
+  <si>
+    <t>Loại 1 kg</t>
+  </si>
+  <si>
+    <t>6,45</t>
+  </si>
+  <si>
+    <t>Từ 150.000- 180.000 đ/kg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,17 +224,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF3F4254"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF3F4254"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -95,7 +251,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -103,22 +259,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,143 +607,438 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0BC2B6-4560-4170-B0EA-9A729F87B874}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="38.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.140625" customWidth="1"/>
-    <col min="8" max="8" width="27.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="90.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="8">
+        <v>16100</v>
+      </c>
+      <c r="H4" s="8">
+        <v>16013</v>
+      </c>
+      <c r="I4" s="4">
+        <v>-87</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>231130563414</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="8">
+        <v>22286</v>
+      </c>
+      <c r="H5" s="8">
+        <v>21786</v>
+      </c>
+      <c r="I5" s="4">
+        <v>-500</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="8">
+        <v>58000</v>
+      </c>
+      <c r="H6" s="8">
+        <v>58857</v>
+      </c>
+      <c r="I6" s="4">
+        <v>857</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="8">
+        <v>121143</v>
+      </c>
+      <c r="H7" s="8">
+        <v>123857</v>
+      </c>
+      <c r="I7" s="8">
+        <v>2714</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>231130563414</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="8">
+        <v>256125</v>
+      </c>
+      <c r="H8" s="8">
+        <v>258938</v>
+      </c>
+      <c r="I8" s="8">
+        <v>2813</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>6000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>231130224114</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>6000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>231130224114</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>7000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>231130224114</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="8">
+        <v>219286</v>
+      </c>
+      <c r="H9" s="8">
+        <v>224857</v>
+      </c>
+      <c r="I9" s="8">
+        <v>5571</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
         <v>7</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
+      <c r="B10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="8">
+        <v>106250</v>
+      </c>
+      <c r="H10" s="8">
+        <v>111250</v>
+      </c>
+      <c r="I10" s="8">
+        <v>5000</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>8</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="8">
+        <v>67625</v>
+      </c>
+      <c r="H11" s="8">
+        <v>67938</v>
+      </c>
+      <c r="I11" s="4">
+        <v>313</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="8">
+        <v>147357</v>
+      </c>
+      <c r="H12" s="8">
+        <v>156857</v>
+      </c>
+      <c r="I12" s="8">
+        <v>9500</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaHhDvk.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaHhDvk.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AspNetCore\net5\CSDLGia\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\excel csdlgia\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9748DAA5-732E-4F78-839B-C6D97CC2C3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73493A0E-D3D8-43AC-A772-E83F8BA8237D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="181029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
-  <si>
-    <t>ST T</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
   <si>
     <t>Mã hàng hóa</t>
   </si>
@@ -54,9 +51,6 @@
     <t>Mức tăng (giảm)</t>
   </si>
   <si>
-    <t>ly H? tăng (giảm) /n/ X</t>
-  </si>
-  <si>
     <t>Nguồn thông tin</t>
   </si>
   <si>
@@ -87,9 +81,6 @@
     <t>Giá bán lẻ</t>
   </si>
   <si>
-    <t>(0,54)</t>
-  </si>
-  <si>
     <t>Do trực tiếp điều tra, thu thập</t>
   </si>
   <si>
@@ -105,9 +96,6 @@
     <t>Tám thơm hoặc tương đương</t>
   </si>
   <si>
-    <t>(2,24)</t>
-  </si>
-  <si>
     <t>Gạo Tám thơm, gạo Tía, Lộc Phượng, Lài sữa, dẻo thơm từ 17.000 -25.000 đ/kg</t>
   </si>
   <si>
@@ -208,24 +196,33 @@
   </si>
   <si>
     <t>Từ 150.000- 180.000 đ/kg</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Tỷ lệ tăng (giảm) (%)</t>
+  </si>
+  <si>
+    <t>GIÁ HÀNG HOÁ DỊCH VỤ KHÁC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -242,6 +239,21 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -251,7 +263,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -274,25 +286,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,438 +646,457 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0BC2B6-4560-4170-B0EA-9A729F87B874}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="72.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="90.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.125" customWidth="1"/>
+    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="90.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+    </row>
+    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+    </row>
+    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="G4" s="5">
+        <v>16100</v>
+      </c>
+      <c r="H4" s="5">
+        <v>16013</v>
+      </c>
+      <c r="I4" s="2">
+        <v>-87</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0.54</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="L4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="8">
-        <v>16100</v>
-      </c>
-      <c r="H4" s="8">
-        <v>16013</v>
-      </c>
-      <c r="I4" s="4">
-        <v>-87</v>
-      </c>
-      <c r="J4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="E5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="5">
+        <v>22286</v>
+      </c>
+      <c r="H5" s="5">
+        <v>21786</v>
+      </c>
+      <c r="I5" s="2">
+        <v>-500</v>
+      </c>
+      <c r="J5" s="8">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="7" t="s">
+    </row>
+    <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="5">
+        <v>58000</v>
+      </c>
+      <c r="H6" s="5">
+        <v>58857</v>
+      </c>
+      <c r="I6" s="2">
+        <v>857</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="8">
-        <v>22286</v>
-      </c>
-      <c r="H5" s="8">
-        <v>21786</v>
-      </c>
-      <c r="I5" s="4">
-        <v>-500</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="4" t="s">
+      <c r="L6" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6" t="s">
+    <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="5">
+        <v>121143</v>
+      </c>
+      <c r="H7" s="5">
+        <v>123857</v>
+      </c>
+      <c r="I7" s="5">
+        <v>2714</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="8">
-        <v>58000</v>
-      </c>
-      <c r="H6" s="8">
-        <v>58857</v>
-      </c>
-      <c r="I6" s="4">
-        <v>857</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="4" t="s">
+      <c r="L7" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <v>4</v>
-      </c>
-      <c r="B7" s="7" t="s">
+    <row r="8" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="5">
+        <v>256125</v>
+      </c>
+      <c r="H8" s="5">
+        <v>258938</v>
+      </c>
+      <c r="I8" s="5">
+        <v>2813</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="8">
-        <v>121143</v>
-      </c>
-      <c r="H7" s="8">
-        <v>123857</v>
-      </c>
-      <c r="I7" s="8">
-        <v>2714</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="4" t="s">
+      <c r="L8" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
-        <v>5</v>
-      </c>
-      <c r="B8" s="7" t="s">
+    <row r="9" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="14">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
+      <c r="D9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="5">
+        <v>219286</v>
+      </c>
+      <c r="H9" s="5">
+        <v>224857</v>
+      </c>
+      <c r="I9" s="5">
+        <v>5571</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="8">
-        <v>256125</v>
-      </c>
-      <c r="H8" s="8">
-        <v>258938</v>
-      </c>
-      <c r="I8" s="8">
-        <v>2813</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
-        <v>6</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="L9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="4" t="s">
+    </row>
+    <row r="10" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="14">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="D10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="5">
+        <v>106250</v>
+      </c>
+      <c r="H10" s="5">
+        <v>111250</v>
+      </c>
+      <c r="I10" s="5">
+        <v>5000</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="8">
-        <v>219286</v>
-      </c>
-      <c r="H9" s="8">
-        <v>224857</v>
-      </c>
-      <c r="I9" s="8">
-        <v>5571</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
-        <v>7</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="L10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="4" t="s">
+    </row>
+    <row r="11" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="14">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="D11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="5">
+        <v>67625</v>
+      </c>
+      <c r="H11" s="5">
+        <v>67938</v>
+      </c>
+      <c r="I11" s="2">
+        <v>313</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="8">
-        <v>106250</v>
-      </c>
-      <c r="H10" s="8">
-        <v>111250</v>
-      </c>
-      <c r="I10" s="8">
-        <v>5000</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
-        <v>8</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="L11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="4" t="s">
+    </row>
+    <row r="12" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="C12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="5">
+        <v>147357</v>
+      </c>
+      <c r="H12" s="5">
+        <v>156857</v>
+      </c>
+      <c r="I12" s="5">
+        <v>9500</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="8">
-        <v>67625</v>
-      </c>
-      <c r="H11" s="8">
-        <v>67938</v>
-      </c>
-      <c r="I11" s="4">
-        <v>313</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="7" t="s">
+      <c r="L12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="8">
-        <v>147357</v>
-      </c>
-      <c r="H12" s="8">
-        <v>156857</v>
-      </c>
-      <c r="I12" s="8">
-        <v>9500</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>60</v>
-      </c>
+    </row>
+    <row r="13" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I13" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi định dạng giá trị" error="Giá trị vừa nhập có định dạng không hợp lệ" sqref="G4:H1048576" xr:uid="{6300AC91-FB55-4CF4-81CA-9FA075F351C4}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi định dạng giá trị" error="Giá trị vừa nhập có định dạng không hợp lệ" sqref="I4:I1048576" xr:uid="{B126C840-AA04-4124-BFF1-E3DBE0C208CB}">
+      <formula1>-9.99999999999999E+34</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi định dạng giá trị" error="Giá trị vừa nhập có định dạng không hợp lệ" sqref="J4:J1048576" xr:uid="{06AF6F19-2C80-47AA-B289-FA85B87F5610}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
